--- a/doc/CSVewider ER图.xlsx
+++ b/doc/CSVewider ER图.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\joint\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="10485" tabRatio="861" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="10485" tabRatio="861" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -17,12 +22,12 @@
     <sheet name="平台账号表" sheetId="4" r:id="rId8"/>
     <sheet name="平台信息表" sheetId="3" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="93">
   <si>
     <t>表名</t>
   </si>
@@ -286,13 +291,29 @@
   </si>
   <si>
     <t>varchar(60)</t>
+  </si>
+  <si>
+    <t>使用标志</t>
+  </si>
+  <si>
+    <t>创建人</t>
+  </si>
+  <si>
+    <t>JOIN_BY</t>
+  </si>
+  <si>
+    <t>0,使用；1,禁用</t>
+  </si>
+  <si>
+    <t>IS_USE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,7 +388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -392,12 +413,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -489,7 +521,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,9 +553,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -555,6 +588,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -730,14 +764,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -746,7 +780,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -754,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -762,7 +796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -770,7 +804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -778,7 +812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -786,7 +820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -794,7 +828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -802,7 +836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -817,14 +851,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="7"/>
   </cols>
@@ -836,14 +870,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -852,7 +886,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -862,12 +896,12 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
@@ -884,7 +918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="D4" s="6"/>
@@ -901,12 +935,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -915,7 +949,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -925,12 +959,12 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
@@ -947,7 +981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="D4" s="6"/>
@@ -964,14 +998,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -980,7 +1014,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -990,12 +1024,12 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1012,7 +1046,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>78</v>
       </c>
@@ -1027,7 +1061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
@@ -1042,7 +1076,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>40</v>
       </c>
@@ -1055,7 +1089,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>80</v>
       </c>
@@ -1070,7 +1104,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>83</v>
       </c>
@@ -1085,7 +1119,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>85</v>
       </c>
@@ -1100,7 +1134,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>31</v>
       </c>
@@ -1115,7 +1149,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
@@ -1130,7 +1164,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>37</v>
       </c>
@@ -1145,7 +1179,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="4:4">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D19" s="1">
         <f>88000*10%</f>
         <v>8800</v>
@@ -1157,18 +1191,19 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -1177,7 +1212,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1187,12 +1222,12 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1209,7 +1244,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>63</v>
       </c>
@@ -1224,7 +1259,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>45</v>
       </c>
@@ -1239,7 +1274,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>65</v>
       </c>
@@ -1254,7 +1289,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>67</v>
       </c>
@@ -1269,7 +1304,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>69</v>
       </c>
@@ -1284,7 +1319,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>72</v>
       </c>
@@ -1301,7 +1336,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>76</v>
       </c>
@@ -1316,7 +1351,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
@@ -1331,7 +1366,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>37</v>
       </c>
@@ -1356,12 +1391,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -1370,7 +1407,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1380,12 +1417,12 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1395,14 +1432,14 @@
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>45</v>
       </c>
@@ -1414,10 +1451,10 @@
         <v>46</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
@@ -1429,10 +1466,10 @@
         <v>23</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>40</v>
       </c>
@@ -1444,10 +1481,10 @@
         <v>41</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>47</v>
       </c>
@@ -1459,10 +1496,10 @@
         <v>48</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>49</v>
       </c>
@@ -1474,10 +1511,10 @@
         <v>50</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>51</v>
       </c>
@@ -1492,7 +1529,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>53</v>
       </c>
@@ -1507,7 +1544,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>56</v>
       </c>
@@ -1522,7 +1559,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>58</v>
       </c>
@@ -1537,63 +1574,95 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="D13" s="6" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="B14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B15" s="6"/>
       <c r="D15" s="6" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B16" s="6"/>
       <c r="D16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="B18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1607,12 +1676,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -1621,7 +1690,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1631,12 +1700,12 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1653,7 +1722,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
@@ -1668,7 +1737,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
@@ -1683,7 +1752,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
@@ -1698,7 +1767,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -1713,7 +1782,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -1728,7 +1797,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
@@ -1753,14 +1822,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -1769,7 +1838,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1779,12 +1848,12 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1801,7 +1870,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -1816,7 +1885,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
@@ -1831,7 +1900,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -1848,7 +1917,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -1863,7 +1932,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -1878,7 +1947,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>37</v>
       </c>

--- a/doc/CSVewider ER图.xlsx
+++ b/doc/CSVewider ER图.xlsx
@@ -1,33 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\joint\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="10485" tabRatio="861" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="20415" windowHeight="10485" tabRatio="880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
-    <sheet name="ER图" sheetId="1" r:id="rId2"/>
-    <sheet name="供应商表" sheetId="9" r:id="rId3"/>
-    <sheet name="产品分类表" sheetId="8" r:id="rId4"/>
-    <sheet name="平台账号目录表" sheetId="7" r:id="rId5"/>
-    <sheet name="CSV模板字段表" sheetId="6" r:id="rId6"/>
-    <sheet name="CSV模板信息表" sheetId="5" r:id="rId7"/>
-    <sheet name="平台账号表" sheetId="4" r:id="rId8"/>
-    <sheet name="平台信息表" sheetId="3" r:id="rId9"/>
+    <sheet name="ER" sheetId="1" r:id="rId2"/>
+    <sheet name="模板规则表" sheetId="11" r:id="rId3"/>
+    <sheet name="系统代码表" sheetId="10" r:id="rId4"/>
+    <sheet name="供应商表" sheetId="9" r:id="rId5"/>
+    <sheet name="产品分类表" sheetId="8" r:id="rId6"/>
+    <sheet name="平台账号目录表" sheetId="7" r:id="rId7"/>
+    <sheet name="CSV模板字段表" sheetId="6" r:id="rId8"/>
+    <sheet name="CSV模板信息表" sheetId="5" r:id="rId9"/>
+    <sheet name="平台账号表" sheetId="4" r:id="rId10"/>
+    <sheet name="平台信息表" sheetId="3" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="113">
   <si>
     <t>表名</t>
   </si>
@@ -77,6 +74,18 @@
     <t>t_supplier</t>
   </si>
   <si>
+    <t>系统代码表</t>
+  </si>
+  <si>
+    <t>T_SYS_CODE</t>
+  </si>
+  <si>
+    <t>模板规则表</t>
+  </si>
+  <si>
+    <t>T_CSVTEMPLATE_RULE</t>
+  </si>
+  <si>
     <t>实体名</t>
   </si>
   <si>
@@ -101,7 +110,7 @@
     <t>PLATFORM_ID</t>
   </si>
   <si>
-    <t>numeric(8,0)</t>
+    <t>int</t>
   </si>
   <si>
     <t>平台名称</t>
@@ -137,9 +146,6 @@
     <t>UPDT_BY</t>
   </si>
   <si>
-    <t>numeric(11,0)</t>
-  </si>
-  <si>
     <t>更新时间</t>
   </si>
   <si>
@@ -209,6 +215,21 @@
     <t>ORIGI_EXPR</t>
   </si>
   <si>
+    <t>使用标志</t>
+  </si>
+  <si>
+    <t>0,使用；1,禁用</t>
+  </si>
+  <si>
+    <t>IS_USE</t>
+  </si>
+  <si>
+    <t>创建人</t>
+  </si>
+  <si>
+    <t>JOIN_BY</t>
+  </si>
+  <si>
     <t>创建日期</t>
   </si>
   <si>
@@ -254,9 +275,6 @@
     <t>FIELD_TYPE</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>模板字段</t>
   </si>
   <si>
@@ -293,27 +311,65 @@
     <t>varchar(60)</t>
   </si>
   <si>
-    <t>使用标志</t>
-  </si>
-  <si>
-    <t>创建人</t>
-  </si>
-  <si>
-    <t>JOIN_BY</t>
-  </si>
-  <si>
-    <t>0,使用；1,禁用</t>
-  </si>
-  <si>
-    <t>IS_USE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>代码分类CODE</t>
+  </si>
+  <si>
+    <t>SYS_TYPE_CD</t>
+  </si>
+  <si>
+    <t>代码分类名称</t>
+  </si>
+  <si>
+    <t>SYS_TYPE_NM</t>
+  </si>
+  <si>
+    <t>代码KEY</t>
+  </si>
+  <si>
+    <t>SYS_CD</t>
+  </si>
+  <si>
+    <t>代码Value</t>
+  </si>
+  <si>
+    <t>SYS_NM</t>
+  </si>
+  <si>
+    <t>代码描述</t>
+  </si>
+  <si>
+    <t>SYS_DESC</t>
+  </si>
+  <si>
+    <t>模板规则ID</t>
+  </si>
+  <si>
+    <t>CSVTEMP_RULE_ID</t>
+  </si>
+  <si>
+    <t>模板ID</t>
+  </si>
+  <si>
+    <t>模板规则类型</t>
+  </si>
+  <si>
+    <t>1,SQL;2,其他</t>
+  </si>
+  <si>
+    <t>RULE_TYPE</t>
+  </si>
+  <si>
+    <t>CSVSQL规则</t>
+  </si>
+  <si>
+    <t>CSV_SQL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,18 +386,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -388,7 +438,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -410,26 +460,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -445,12 +481,12 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -465,7 +501,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8248650" cy="5229225"/>
+          <a:ext cx="8248650" cy="7620000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -521,7 +557,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -553,10 +589,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -588,7 +623,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -764,14 +798,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -780,7 +812,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -788,7 +820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -796,7 +828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -804,7 +836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -812,7 +844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -820,7 +852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -828,7 +860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -836,12 +868,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -850,18 +898,309 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="7"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -870,14 +1209,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -886,44 +1225,99 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="B4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="D4" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -935,12 +1329,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -949,44 +1343,112 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="B4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="D4" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -998,14 +1460,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -1014,176 +1474,44 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="D5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="D6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="D11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="D12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D19" s="1">
-        <f>88000*10%</f>
-        <v>8800</v>
-      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1191,19 +1519,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -1212,174 +1537,44 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="D5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="D6" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="D11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="D12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1391,14 +1586,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -1407,263 +1600,171 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="B7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="B8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="B9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="6" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="D14" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="D15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="D16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="D17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="D18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1676,12 +1777,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -1690,126 +1791,173 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="B4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="B6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="B7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="B8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="D9" s="6" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="B11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>39</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1822,14 +1970,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -1838,128 +1984,263 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B9" s="6"/>
       <c r="D9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="5" t="s">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="B17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>39</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
